--- a/results/01-2024/contributions-comparison-01-2024.xlsx
+++ b/results/01-2024/contributions-comparison-01-2024.xlsx
@@ -963,7 +963,7 @@
         <v>-0.2424</v>
       </c>
       <c r="O9" t="n">
-        <v>-0.2445</v>
+        <v>-0.239</v>
       </c>
       <c r="P9" t="n">
         <v>-0.3884</v>
@@ -1331,10 +1331,10 @@
         <v>-0.0473</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.1022</v>
+        <v>-0.0422</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.0362</v>
+        <v>-0.0273</v>
       </c>
       <c r="N16"/>
       <c r="O16"/>
@@ -1368,34 +1368,34 @@
       <c r="L17"/>
       <c r="M17"/>
       <c r="N17" t="n">
-        <v>-0.0236</v>
+        <v>-0.0277</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.026</v>
+        <v>-0.0372</v>
       </c>
       <c r="P17" t="n">
-        <v>-0.0202</v>
+        <v>-0.0357</v>
       </c>
       <c r="Q17" t="n">
-        <v>-0.0213</v>
+        <v>-0.0344</v>
       </c>
       <c r="R17" t="n">
-        <v>-0.0296</v>
+        <v>-0.0224</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.0206</v>
+        <v>-0.0152</v>
       </c>
       <c r="T17" t="n">
-        <v>-0.0158</v>
+        <v>-0.0137</v>
       </c>
       <c r="U17" t="n">
-        <v>-0.0108</v>
+        <v>-0.0138</v>
       </c>
       <c r="V17" t="n">
-        <v>-0.0019</v>
+        <v>-0.0129</v>
       </c>
       <c r="W17" t="n">
-        <v>-0.003</v>
+        <v>-0.0143</v>
       </c>
     </row>
     <row r="18">
@@ -1817,34 +1817,34 @@
         <v>25</v>
       </c>
       <c r="D26" t="n">
-        <v>0.3926</v>
+        <v>0.3559</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2349</v>
+        <v>0.1922</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0321</v>
+        <v>0.0208</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.0559</v>
+        <v>-0.0658</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.0809</v>
+        <v>-0.1684</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.083</v>
+        <v>-0.1661</v>
       </c>
       <c r="J26" t="n">
-        <v>-0.0507</v>
+        <v>-0.0803</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.0453</v>
+        <v>-0.063</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.505</v>
+        <v>-0.3297</v>
       </c>
       <c r="M26" t="n">
-        <v>-0.5524</v>
+        <v>-0.3425</v>
       </c>
       <c r="N26"/>
       <c r="O26"/>
@@ -1878,34 +1878,34 @@
       <c r="L27"/>
       <c r="M27"/>
       <c r="N27" t="n">
-        <v>-0.2132</v>
+        <v>-0.1399</v>
       </c>
       <c r="O27" t="n">
-        <v>-0.167</v>
+        <v>-0.1031</v>
       </c>
       <c r="P27" t="n">
-        <v>-0.3077</v>
+        <v>-0.2902</v>
       </c>
       <c r="Q27" t="n">
-        <v>-0.2292</v>
+        <v>-0.2613</v>
       </c>
       <c r="R27" t="n">
-        <v>-0.0977</v>
+        <v>-0.1046</v>
       </c>
       <c r="S27" t="n">
-        <v>-0.0289</v>
+        <v>-0.0568</v>
       </c>
       <c r="T27" t="n">
-        <v>-0.0223</v>
+        <v>-0.0915</v>
       </c>
       <c r="U27" t="n">
-        <v>-0.0153</v>
+        <v>-0.0676</v>
       </c>
       <c r="V27" t="n">
-        <v>-0.0073</v>
+        <v>-0.0297</v>
       </c>
       <c r="W27" t="n">
-        <v>-0.0712</v>
+        <v>-0.0777</v>
       </c>
     </row>
     <row r="28">
@@ -2021,34 +2021,34 @@
         <v>25</v>
       </c>
       <c r="D30" t="n">
-        <v>-2.4153</v>
+        <v>-2.452</v>
       </c>
       <c r="E30" t="n">
-        <v>-2.942</v>
+        <v>-2.9847</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.159</v>
+        <v>-3.1702</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.7594</v>
+        <v>-3.7693</v>
       </c>
       <c r="H30" t="n">
-        <v>-4.4973</v>
+        <v>-4.585</v>
       </c>
       <c r="I30" t="n">
-        <v>-2.1663</v>
+        <v>-2.2495</v>
       </c>
       <c r="J30" t="n">
-        <v>-0.4741</v>
+        <v>-0.5037</v>
       </c>
       <c r="K30" t="n">
-        <v>0.1716</v>
+        <v>0.1538</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.3414</v>
+        <v>-0.1066</v>
       </c>
       <c r="M30" t="n">
-        <v>0.4203</v>
+        <v>0.6392</v>
       </c>
       <c r="N30"/>
       <c r="O30"/>
@@ -2082,34 +2082,34 @@
       <c r="L31"/>
       <c r="M31"/>
       <c r="N31" t="n">
-        <v>0.0984</v>
+        <v>0.1675</v>
       </c>
       <c r="O31" t="n">
-        <v>-0.6786</v>
+        <v>-0.1075</v>
       </c>
       <c r="P31" t="n">
-        <v>-0.5255</v>
+        <v>-0.6267</v>
       </c>
       <c r="Q31" t="n">
-        <v>-0.5835</v>
+        <v>-0.7305</v>
       </c>
       <c r="R31" t="n">
-        <v>-0.3406</v>
+        <v>-0.4342</v>
       </c>
       <c r="S31" t="n">
-        <v>-0.5785</v>
+        <v>-0.698</v>
       </c>
       <c r="T31" t="n">
-        <v>-0.4427</v>
+        <v>-0.6044</v>
       </c>
       <c r="U31" t="n">
-        <v>-0.1849</v>
+        <v>-0.2413</v>
       </c>
       <c r="V31" t="n">
-        <v>-0.0103</v>
+        <v>-0.0447</v>
       </c>
       <c r="W31" t="n">
-        <v>-50.1309</v>
+        <v>-50.1495</v>
       </c>
     </row>
     <row r="32">
@@ -2289,7 +2289,7 @@
         <v>-0.2928</v>
       </c>
       <c r="O35" t="n">
-        <v>-0.1239</v>
+        <v>-0.1184</v>
       </c>
       <c r="P35" t="n">
         <v>-0.3653</v>
@@ -2493,31 +2493,31 @@
         <v>-0.012</v>
       </c>
       <c r="O39" t="n">
-        <v>-0.595</v>
+        <v>-0.1125</v>
       </c>
       <c r="P39" t="n">
-        <v>-0.0001</v>
+        <v>-0.1052</v>
       </c>
       <c r="Q39" t="n">
-        <v>-0.0001</v>
+        <v>-0.102</v>
       </c>
       <c r="R39" t="n">
-        <v>-0.006</v>
+        <v>-0.0999</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>-0.0968</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>-0.0938</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="40">
@@ -2697,7 +2697,7 @@
         <v>0.503</v>
       </c>
       <c r="O43" t="n">
-        <v>0.0847</v>
+        <v>0.1147</v>
       </c>
       <c r="P43" t="n">
         <v>0.3054</v>
@@ -3105,7 +3105,7 @@
         <v>0.0021</v>
       </c>
       <c r="O51" t="n">
-        <v>0.0082</v>
+        <v>0.0074</v>
       </c>
       <c r="P51" t="n">
         <v>0.0076</v>
@@ -3254,10 +3254,10 @@
         <v>-0.0005</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.0005</v>
+        <v>-0.0006</v>
       </c>
       <c r="H54" t="n">
-        <v>-0.0004</v>
+        <v>-0.0007</v>
       </c>
       <c r="I54" t="n">
         <v>-0.0001</v>
@@ -3266,10 +3266,10 @@
         <v>-0.0001</v>
       </c>
       <c r="K54" t="n">
-        <v>-0.0002</v>
+        <v>-0.0003</v>
       </c>
       <c r="L54" t="n">
-        <v>-0.0004</v>
+        <v>-0.0009</v>
       </c>
       <c r="M54" t="n">
         <v>-0.0001</v>
@@ -3309,25 +3309,25 @@
         <v>-0.0001</v>
       </c>
       <c r="O55" t="n">
-        <v>-0.0015</v>
+        <v>-0.0011</v>
       </c>
       <c r="P55" t="n">
-        <v>-0.0043</v>
+        <v>-0.0025</v>
       </c>
       <c r="Q55" t="n">
-        <v>-0.0004</v>
+        <v>-0.0005</v>
       </c>
       <c r="R55" t="n">
         <v>-0.0004</v>
       </c>
       <c r="S55" t="n">
-        <v>-0.0004</v>
+        <v>-0.0006</v>
       </c>
       <c r="T55" t="n">
-        <v>-0.0004</v>
+        <v>-0.0013</v>
       </c>
       <c r="U55" t="n">
-        <v>-0.0004</v>
+        <v>-0.0003</v>
       </c>
       <c r="V55" t="n">
         <v>-0.0003</v>
@@ -3819,7 +3819,7 @@
         <v>-0.1008</v>
       </c>
       <c r="O65" t="n">
-        <v>0.1308</v>
+        <v>0.1364</v>
       </c>
       <c r="P65" t="n">
         <v>0.0008</v>
@@ -4187,10 +4187,10 @@
         <v>0</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>0.009</v>
       </c>
       <c r="N72"/>
       <c r="O72"/>
@@ -4224,34 +4224,34 @@
       <c r="L73"/>
       <c r="M73"/>
       <c r="N73" t="n">
-        <v>0</v>
+        <v>-0.0041</v>
       </c>
       <c r="O73" t="n">
-        <v>0.0001</v>
+        <v>-0.0112</v>
       </c>
       <c r="P73" t="n">
-        <v>0</v>
+        <v>-0.0154</v>
       </c>
       <c r="Q73" t="n">
-        <v>0</v>
+        <v>-0.013</v>
       </c>
       <c r="R73" t="n">
-        <v>0.0001</v>
+        <v>0.0072</v>
       </c>
       <c r="S73" t="n">
-        <v>0</v>
+        <v>0.0055</v>
       </c>
       <c r="T73" t="n">
-        <v>0</v>
+        <v>0.0021</v>
       </c>
       <c r="U73" t="n">
-        <v>0</v>
+        <v>-0.0031</v>
       </c>
       <c r="V73" t="n">
-        <v>0</v>
+        <v>-0.011</v>
       </c>
       <c r="W73" t="n">
-        <v>0</v>
+        <v>-0.0112</v>
       </c>
     </row>
     <row r="74">
@@ -4673,34 +4673,34 @@
         <v>54</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>-0.0366</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>-0.0427</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>-0.0112</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>-0.0099</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>-0.0875</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>-0.0831</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>-0.0295</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>-0.0177</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>0.1753</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>0.2099</v>
       </c>
       <c r="N82"/>
       <c r="O82"/>
@@ -4734,34 +4734,34 @@
       <c r="L83"/>
       <c r="M83"/>
       <c r="N83" t="n">
-        <v>0.0113</v>
+        <v>0.0845</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0088</v>
+        <v>0.0728</v>
       </c>
       <c r="P83" t="n">
-        <v>0.0085</v>
+        <v>0.0261</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.0078</v>
+        <v>-0.0243</v>
       </c>
       <c r="R83" t="n">
-        <v>0.0069</v>
+        <v>0.0001</v>
       </c>
       <c r="S83" t="n">
-        <v>0.0067</v>
+        <v>-0.0213</v>
       </c>
       <c r="T83" t="n">
-        <v>0.0065</v>
+        <v>-0.0626</v>
       </c>
       <c r="U83" t="n">
-        <v>0.0064</v>
+        <v>-0.0459</v>
       </c>
       <c r="V83" t="n">
-        <v>0.0057</v>
+        <v>-0.0167</v>
       </c>
       <c r="W83" t="n">
-        <v>-0.0033</v>
+        <v>-0.0097</v>
       </c>
     </row>
     <row r="84">
@@ -4877,34 +4877,34 @@
         <v>54</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>-0.0366</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>-0.0427</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>-0.0112</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>-0.0099</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>-0.0878</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>-0.0831</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>-0.0295</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>-0.0178</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>0.2348</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>0.2189</v>
       </c>
       <c r="N86"/>
       <c r="O86"/>
@@ -4938,34 +4938,34 @@
       <c r="L87"/>
       <c r="M87"/>
       <c r="N87" t="n">
-        <v>0.3778</v>
+        <v>0.4469</v>
       </c>
       <c r="O87" t="n">
-        <v>0.0127</v>
+        <v>0.5838</v>
       </c>
       <c r="P87" t="n">
-        <v>0.0191</v>
+        <v>-0.0821</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.0283</v>
+        <v>-0.1187</v>
       </c>
       <c r="R87" t="n">
-        <v>0.0149</v>
+        <v>-0.0787</v>
       </c>
       <c r="S87" t="n">
-        <v>-0.0238</v>
+        <v>-0.1434</v>
       </c>
       <c r="T87" t="n">
-        <v>-0.0119</v>
+        <v>-0.1737</v>
       </c>
       <c r="U87" t="n">
-        <v>-0.0132</v>
+        <v>-0.0696</v>
       </c>
       <c r="V87" t="n">
-        <v>-0.0079</v>
+        <v>-0.0423</v>
       </c>
       <c r="W87" t="n">
-        <v>0.0993</v>
+        <v>0.0807</v>
       </c>
     </row>
     <row r="88">
@@ -5145,7 +5145,7 @@
         <v>-0.2449</v>
       </c>
       <c r="O91" t="n">
-        <v>0.1315</v>
+        <v>0.1371</v>
       </c>
       <c r="P91" t="n">
         <v>0.001</v>
@@ -5349,31 +5349,31 @@
         <v>0</v>
       </c>
       <c r="O95" t="n">
-        <v>0.0011</v>
+        <v>0.4836</v>
       </c>
       <c r="P95" t="n">
-        <v>0</v>
+        <v>-0.105</v>
       </c>
       <c r="Q95" t="n">
-        <v>0</v>
+        <v>-0.1019</v>
       </c>
       <c r="R95" t="n">
-        <v>0</v>
+        <v>-0.0939</v>
       </c>
       <c r="S95" t="n">
-        <v>0</v>
+        <v>-0.0968</v>
       </c>
       <c r="T95" t="n">
-        <v>0</v>
+        <v>-0.0938</v>
       </c>
       <c r="U95" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="V95" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="W95" t="n">
-        <v>0</v>
+        <v>-0.0009</v>
       </c>
     </row>
     <row r="96">
@@ -5553,7 +5553,7 @@
         <v>0.471</v>
       </c>
       <c r="O99" t="n">
-        <v>-0.1315</v>
+        <v>-0.1015</v>
       </c>
       <c r="P99" t="n">
         <v>-0.0008</v>
@@ -5961,7 +5961,7 @@
         <v>-0.0054</v>
       </c>
       <c r="O107" t="n">
-        <v>0</v>
+        <v>-0.0008</v>
       </c>
       <c r="P107" t="n">
         <v>0</v>
@@ -6110,10 +6110,10 @@
         <v>0</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>-0.0003</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -6122,10 +6122,10 @@
         <v>0</v>
       </c>
       <c r="K110" t="n">
-        <v>0</v>
+        <v>-0.0001</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>-0.0005</v>
       </c>
       <c r="M110" t="n">
         <v>0</v>
@@ -6165,10 +6165,10 @@
         <v>0.0005</v>
       </c>
       <c r="O111" t="n">
-        <v>-0.0001</v>
+        <v>0.0004</v>
       </c>
       <c r="P111" t="n">
-        <v>0</v>
+        <v>0.0018</v>
       </c>
       <c r="Q111" t="n">
         <v>0</v>
@@ -6177,10 +6177,10 @@
         <v>0</v>
       </c>
       <c r="S111" t="n">
-        <v>0</v>
+        <v>-0.0002</v>
       </c>
       <c r="T111" t="n">
-        <v>0</v>
+        <v>-0.001</v>
       </c>
       <c r="U111" t="n">
         <v>0</v>
@@ -6189,7 +6189,7 @@
         <v>0</v>
       </c>
       <c r="W111" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
     </row>
     <row r="112">
